--- a/DCS_Missions/DCS_Maps/Syria/PFS308_SEAD_TNG/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/PFS308_SEAD_TNG/Kneeboards/presets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\PFS308_SEAD_TNG\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3E95A-0DB4-4522-8FEF-F0AD4E114185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B23BF2-D202-4F0B-AEB7-52CC6BD3CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="F4E II" sheetId="20" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="283">
   <si>
     <t>ARC-186</t>
   </si>
@@ -840,12 +840,6 @@
     <t>Music</t>
   </si>
   <si>
-    <t>Home Tower</t>
-  </si>
-  <si>
-    <t>Home TWR</t>
-  </si>
-  <si>
     <t>269.00</t>
   </si>
   <si>
@@ -913,6 +907,12 @@
   </si>
   <si>
     <t>TEXACO #1 53Y/26kft/0.78Ma</t>
+  </si>
+  <si>
+    <t>Hatay TWR</t>
+  </si>
+  <si>
+    <t>Texaco 1 AAR</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1914,6 +1914,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1965,74 +1989,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2551,7 +2512,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,24 +2524,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -2603,52 +2564,52 @@
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="261">
+      <c r="D6" s="226">
         <v>1</v>
       </c>
-      <c r="E6" s="262" t="s">
+      <c r="E6" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="263" t="s">
-        <v>259</v>
+      <c r="F6" s="227" t="s">
+        <v>281</v>
       </c>
       <c r="G6" s="204">
         <v>1</v>
       </c>
       <c r="H6" s="209" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I6" s="205"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="235">
+      <c r="D7" s="89">
         <v>2</v>
       </c>
-      <c r="E7" s="236" t="s">
+      <c r="E7" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="237"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="121">
         <v>2</v>
       </c>
       <c r="H7" s="210" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I7" s="91"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="235">
+      <c r="D8" s="89">
         <v>3</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="237"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="121">
         <v>3</v>
       </c>
       <c r="H8" s="210" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I8" s="91"/>
     </row>
@@ -2656,7 +2617,7 @@
       <c r="D9" s="98">
         <v>4</v>
       </c>
-      <c r="E9" s="260" t="s">
+      <c r="E9" s="246" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="100" t="s">
@@ -2666,23 +2627,23 @@
         <v>4</v>
       </c>
       <c r="H9" s="210" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="235">
+      <c r="D10" s="89">
         <v>5</v>
       </c>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="237"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="121">
         <v>5</v>
       </c>
       <c r="H10" s="210" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I10" s="105"/>
     </row>
@@ -2691,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="212" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="213" t="s">
         <v>257</v>
@@ -2700,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -2716,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="210" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I12" s="91"/>
     </row>
@@ -2734,7 +2695,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="210" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I13" s="91"/>
     </row>
@@ -2752,7 +2713,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="210" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I14" s="91"/>
     </row>
@@ -2770,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="210" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I15" s="91"/>
     </row>
@@ -2788,10 +2749,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="210" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I16" s="91"/>
-      <c r="J16" s="228"/>
+      <c r="J16" s="238"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89">
@@ -2807,44 +2768,44 @@
         <v>12</v>
       </c>
       <c r="H17" s="210" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I17" s="91"/>
-      <c r="J17" s="228"/>
+      <c r="J17" s="238"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89">
         <v>13</v>
       </c>
       <c r="E18" s="210" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F18" s="91"/>
       <c r="G18" s="121">
         <v>13</v>
       </c>
       <c r="H18" s="210" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I18" s="122"/>
-      <c r="J18" s="228"/>
+      <c r="J18" s="238"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89">
         <v>14</v>
       </c>
       <c r="E19" s="210" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="121">
         <v>14</v>
       </c>
       <c r="H19" s="210" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="228"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89">
@@ -2860,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="210" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I20" s="91"/>
     </row>
@@ -2878,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="210" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I21" s="91"/>
     </row>
@@ -2896,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="210" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I22" s="91"/>
     </row>
@@ -2914,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="H23" s="210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I23" s="91"/>
     </row>
@@ -2926,7 +2887,7 @@
         <v>19</v>
       </c>
       <c r="H24" s="210" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I24" s="91"/>
     </row>
@@ -2938,7 +2899,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="211" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I25" s="167"/>
     </row>
@@ -2965,60 +2926,59 @@
     </row>
     <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="238"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="H30" s="86"/>
       <c r="I30" s="87"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D31" s="133" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="259"/>
-      <c r="F31" s="254"/>
+        <v>280</v>
+      </c>
+      <c r="E31" s="225"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="184"/>
       <c r="H31" s="86"/>
       <c r="I31" s="87"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
       <c r="H32" s="86"/>
       <c r="I32" s="87"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="218"/>
-      <c r="E33" s="219"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
       <c r="F33" s="214"/>
       <c r="G33" s="215"/>
       <c r="H33" s="207"/>
       <c r="I33" s="87"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="218"/>
-      <c r="E34" s="219"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="229"/>
       <c r="F34" s="214"/>
       <c r="G34" s="215"/>
       <c r="H34" s="206"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="220"/>
-      <c r="E35" s="221"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="231"/>
       <c r="F35" s="217"/>
       <c r="G35" s="216"/>
       <c r="H35" s="208"/>
@@ -3069,24 +3029,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3223,7 +3183,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -3232,7 +3192,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -3241,7 +3201,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -3250,7 +3210,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -3328,10 +3288,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -3412,24 +3372,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3594,7 +3554,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -3609,7 +3569,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -3624,7 +3584,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -3639,7 +3599,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -3751,10 +3711,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -3832,24 +3792,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4197,10 +4157,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4273,24 +4233,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -4601,10 +4561,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4679,24 +4639,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5051,10 +5011,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -5120,8 +5080,8 @@
   </sheetPr>
   <dimension ref="D2:T34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,24 +5093,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5269,13 +5229,15 @@
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="89">
+      <c r="D11" s="123">
         <v>6</v>
       </c>
-      <c r="E11" s="241" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="122"/>
+      <c r="E11" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>281</v>
+      </c>
       <c r="G11" s="115">
         <v>6</v>
       </c>
@@ -5290,10 +5252,10 @@
       <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="257" t="s">
+      <c r="E12" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="258" t="s">
+      <c r="F12" s="224" t="s">
         <v>229</v>
       </c>
       <c r="G12" s="115">
@@ -5386,7 +5348,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5407,16 +5369,16 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" s="235">
+      <c r="D18" s="89">
         <v>13</v>
       </c>
-      <c r="E18" s="241" t="s">
+      <c r="E18" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="237" t="s">
+      <c r="F18" s="122" t="s">
         <v>147</v>
       </c>
       <c r="G18" s="89">
@@ -5428,16 +5390,16 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" s="235">
+      <c r="D19" s="89">
         <v>14</v>
       </c>
-      <c r="E19" s="241" t="s">
+      <c r="E19" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="242" t="s">
+      <c r="F19" s="91" t="s">
         <v>148</v>
       </c>
       <c r="G19" s="106">
@@ -5449,7 +5411,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -5594,58 +5556,53 @@
       <c r="F28" s="28"/>
     </row>
     <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="247" t="s">
-        <v>280</v>
+      <c r="D29" s="220" t="s">
+        <v>278</v>
       </c>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="229" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="250"/>
+        <v>277</v>
+      </c>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="87"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="238"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="248"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="250"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="87"/>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D32" s="133" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="259"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="249"/>
-      <c r="H32" s="250"/>
+        <v>279</v>
+      </c>
+      <c r="E32" s="225"/>
+      <c r="F32" s="134"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="87"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="238"/>
-      <c r="E33" s="248"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="251"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="I33" s="188"/>
     </row>
     <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="244"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="246"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="187"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
     </row>
@@ -5671,7 +5628,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:F31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,24 +5640,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5730,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="145" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="G6" s="88" t="s">
         <v>241</v>
@@ -5822,7 +5779,7 @@
         <v>82</v>
       </c>
       <c r="F11" s="100" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="G11" s="156">
         <v>6</v>
@@ -5931,7 +5888,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5952,16 +5909,16 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="235">
+      <c r="D18" s="89">
         <v>13</v>
       </c>
-      <c r="E18" s="241" t="s">
+      <c r="E18" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="242"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="89">
         <v>13</v>
       </c>
@@ -5971,16 +5928,16 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="235">
+      <c r="D19" s="89">
         <v>14</v>
       </c>
-      <c r="E19" s="241" t="s">
+      <c r="E19" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="242"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="89">
         <v>14</v>
       </c>
@@ -5988,7 +5945,7 @@
         <v>165</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -6121,38 +6078,37 @@
     </row>
     <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="238"/>
-      <c r="E30" s="240"/>
-      <c r="F30" s="240"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="H30" s="86"/>
       <c r="I30" s="87"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D31" s="133" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="259"/>
-      <c r="F31" s="254"/>
+        <v>280</v>
+      </c>
+      <c r="E31" s="225"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="184"/>
       <c r="H31" s="86"/>
       <c r="I31" s="87"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="28"/>
       <c r="H32" s="86"/>
       <c r="I32" s="87"/>
     </row>
@@ -6200,8 +6156,8 @@
   </sheetPr>
   <dimension ref="D2:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,37 +6169,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="232" t="s">
+      <c r="D5" s="242" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="233"/>
+      <c r="E5" s="243"/>
       <c r="F5" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="232" t="s">
+      <c r="G5" s="242" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="233"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="43" t="s">
         <v>211</v>
       </c>
@@ -6349,14 +6305,14 @@
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="89">
+      <c r="D11" s="123">
         <v>6</v>
       </c>
-      <c r="E11" s="121" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="122" t="s">
-        <v>193</v>
+      <c r="E11" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>281</v>
       </c>
       <c r="G11" s="115">
         <v>6</v>
@@ -6468,7 +6424,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6489,7 +6445,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6510,7 +6466,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6531,7 +6487,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6810,19 +6766,18 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="229" t="s">
+      <c r="H37" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="230"/>
+      <c r="I37" s="240"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
-      <c r="G38" s="251"/>
-      <c r="H38" s="255" t="s">
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="H38" s="221" t="s">
         <v>220</v>
       </c>
       <c r="I38" s="182"/>
@@ -6831,74 +6786,66 @@
       <c r="D39" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
-      <c r="G39" s="251"/>
-      <c r="H39" s="255" t="s">
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="H39" s="221" t="s">
         <v>221</v>
       </c>
       <c r="I39" s="182"/>
     </row>
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D40" s="238"/>
-      <c r="E40" s="249"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="251"/>
-      <c r="H40" s="255" t="s">
+      <c r="D40" s="50"/>
+      <c r="F40" s="28"/>
+      <c r="H40" s="221" t="s">
         <v>222</v>
       </c>
       <c r="I40" s="182"/>
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D41" s="133" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="259"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="251"/>
-      <c r="H41" s="256" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="225"/>
+      <c r="F41" s="134"/>
+      <c r="H41" s="222" t="s">
         <v>223</v>
       </c>
       <c r="I41" s="183"/>
     </row>
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="50"/>
-      <c r="E42" s="251"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="251"/>
-      <c r="H42" s="256" t="s">
+      <c r="F42" s="28"/>
+      <c r="H42" s="222" t="s">
         <v>224</v>
       </c>
       <c r="I42" s="183"/>
     </row>
     <row r="43" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D43" s="149" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="252"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="251"/>
-      <c r="H43" s="256" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="H43" s="222" t="s">
         <v>225</v>
       </c>
       <c r="I43" s="183"/>
     </row>
     <row r="44" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D44" s="149" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" s="252"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="256" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="H44" s="222" t="s">
         <v>226</v>
       </c>
       <c r="I44" s="189"/>
     </row>
     <row r="45" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="244"/>
-      <c r="E45" s="245"/>
-      <c r="F45" s="245"/>
+      <c r="D45" s="218"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="219"/>
       <c r="G45" s="187"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
@@ -6935,24 +6882,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -7548,13 +7495,13 @@
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="229" t="s">
+      <c r="H28" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="230"/>
+      <c r="I28" s="240"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="149" t="s">
@@ -7670,24 +7617,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41"/>
@@ -7844,7 +7791,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7859,7 +7806,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7874,7 +7821,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7889,7 +7836,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -8001,10 +7948,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -8086,22 +8033,22 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8410,10 +8357,10 @@
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="229" t="s">
+      <c r="H29" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="230"/>
+      <c r="I29" s="240"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -8491,30 +8438,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="233"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="235"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -9167,7 +9114,7 @@
       <c r="L27" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="231"/>
+      <c r="M27" s="241"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -9197,7 +9144,7 @@
       <c r="L28" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="231"/>
+      <c r="M28" s="241"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -9227,7 +9174,7 @@
       <c r="L29" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="231"/>
+      <c r="M29" s="241"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -9257,7 +9204,7 @@
       <c r="L30" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="231"/>
+      <c r="M30" s="241"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -9388,10 +9335,10 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="229" t="s">
+      <c r="K39" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="230"/>
+      <c r="L39" s="240"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -9544,37 +9491,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="232" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="223"/>
-      <c r="F3" s="222" t="s">
+      <c r="E3" s="233"/>
+      <c r="F3" s="232" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="223"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="233"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="225"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="232" t="s">
+      <c r="D5" s="242" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="233"/>
+      <c r="E5" s="243"/>
       <c r="F5" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="232" t="s">
+      <c r="G5" s="242" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="233"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="43" t="s">
         <v>215</v>
       </c>
@@ -9695,7 +9642,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="231"/>
+      <c r="J16" s="241"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -9704,7 +9651,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="231"/>
+      <c r="J17" s="241"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -9713,7 +9660,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="231"/>
+      <c r="J18" s="241"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -9722,7 +9669,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="231"/>
+      <c r="J19" s="241"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -9873,10 +9820,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="229" t="s">
+      <c r="H37" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="230"/>
+      <c r="I37" s="240"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">

--- a/DCS_Missions/DCS_Maps/Syria/PFS308_SEAD_TNG/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/PFS308_SEAD_TNG/Kneeboards/presets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repo\DCS\DCS_Missions\DCS_Maps\Syria\PFS308_SEAD_TNG\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B23BF2-D202-4F0B-AEB7-52CC6BD3CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73191D-FD07-479E-834F-2ADBD2402BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="3" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
     <sheet name="F4E II" sheetId="20" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="284">
   <si>
     <t>ARC-186</t>
   </si>
@@ -913,6 +913,9 @@
   </si>
   <si>
     <t>Texaco 1 AAR</t>
+  </si>
+  <si>
+    <t>Music 269.00Mhz</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1896,9 +1905,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1938,6 +1944,12 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1989,11 +2001,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2512,7 +2533,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,24 +2545,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -2564,13 +2585,13 @@
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="226">
+      <c r="D6" s="225">
         <v>1</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="226" t="s">
         <v>281</v>
       </c>
       <c r="G6" s="204">
@@ -2598,13 +2619,15 @@
       <c r="I7" s="91"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="89">
+      <c r="D8" s="192">
         <v>3</v>
       </c>
-      <c r="E8" s="210" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="122"/>
+      <c r="E8" s="247" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="194" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="121">
         <v>3</v>
       </c>
@@ -2617,7 +2640,7 @@
       <c r="D9" s="98">
         <v>4</v>
       </c>
-      <c r="E9" s="246" t="s">
+      <c r="E9" s="228" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="100" t="s">
@@ -2648,13 +2671,13 @@
       <c r="I10" s="105"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="192">
+      <c r="D11" s="248">
         <v>6</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="E11" s="249" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="213" t="s">
+      <c r="F11" s="250" t="s">
         <v>257</v>
       </c>
       <c r="G11" s="121">
@@ -2752,7 +2775,7 @@
         <v>269</v>
       </c>
       <c r="I16" s="91"/>
-      <c r="J16" s="238"/>
+      <c r="J16" s="239"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89">
@@ -2771,7 +2794,7 @@
         <v>259</v>
       </c>
       <c r="I17" s="91"/>
-      <c r="J17" s="238"/>
+      <c r="J17" s="239"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89">
@@ -2788,7 +2811,7 @@
         <v>258</v>
       </c>
       <c r="I18" s="122"/>
-      <c r="J18" s="238"/>
+      <c r="J18" s="239"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89">
@@ -2805,7 +2828,7 @@
         <v>270</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="238"/>
+      <c r="J19" s="239"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89">
@@ -2931,10 +2954,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -2947,7 +2970,7 @@
       <c r="D31" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="225"/>
+      <c r="E31" s="224"/>
       <c r="F31" s="134"/>
       <c r="G31" s="184"/>
       <c r="H31" s="86"/>
@@ -2961,26 +2984,26 @@
       <c r="I32" s="87"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="215"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="214"/>
       <c r="H33" s="207"/>
       <c r="I33" s="87"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="228"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="215"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="213"/>
+      <c r="G34" s="214"/>
       <c r="H34" s="206"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="230"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="216"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="215"/>
       <c r="H35" s="208"/>
       <c r="I35" s="139"/>
     </row>
@@ -3029,24 +3052,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3183,7 +3206,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="89"/>
@@ -3192,7 +3215,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89"/>
@@ -3201,7 +3224,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89"/>
@@ -3210,7 +3233,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="89"/>
@@ -3288,10 +3311,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -3372,24 +3395,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="155" t="s">
@@ -3554,7 +3577,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="156">
@@ -3569,7 +3592,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -3584,7 +3607,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -3599,7 +3622,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="128">
@@ -3711,10 +3734,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -3792,24 +3815,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -4157,10 +4180,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4233,24 +4256,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="57" t="s">
@@ -4561,10 +4584,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -4639,24 +4662,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5011,10 +5034,10 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -5080,8 +5103,8 @@
   </sheetPr>
   <dimension ref="D2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5093,24 +5116,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5169,13 +5192,13 @@
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="93">
+      <c r="D8" s="192">
         <v>3</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="212" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="115">
@@ -5252,10 +5275,10 @@
       <c r="D12" s="98">
         <v>7</v>
       </c>
-      <c r="E12" s="223" t="s">
+      <c r="E12" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="224" t="s">
+      <c r="F12" s="223" t="s">
         <v>229</v>
       </c>
       <c r="G12" s="115">
@@ -5348,7 +5371,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5369,7 +5392,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="89">
@@ -5390,7 +5413,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="89">
@@ -5411,7 +5434,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -5556,16 +5579,16 @@
       <c r="F28" s="28"/>
     </row>
     <row r="29" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="220" t="s">
+      <c r="D29" s="219" t="s">
         <v>278</v>
       </c>
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -5587,7 +5610,7 @@
       <c r="D32" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="E32" s="225"/>
+      <c r="E32" s="224"/>
       <c r="F32" s="134"/>
       <c r="H32" s="86"/>
       <c r="I32" s="87"/>
@@ -5596,12 +5619,15 @@
       <c r="D33" s="50"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
       <c r="I33" s="188"/>
     </row>
     <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="218"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
       <c r="G34" s="187"/>
       <c r="H34" s="4"/>
       <c r="I34" s="6"/>
@@ -5628,7 +5654,7 @@
   <dimension ref="C2:N35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,24 +5666,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -5718,13 +5744,15 @@
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="89">
+      <c r="D8" s="192">
         <v>3</v>
       </c>
-      <c r="E8" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="91"/>
+      <c r="E8" s="193" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="194" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="156">
         <v>3</v>
       </c>
@@ -5888,7 +5916,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -5909,7 +5937,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="89">
@@ -5928,7 +5956,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="89">
@@ -5945,7 +5973,7 @@
         <v>165</v>
       </c>
       <c r="I19" s="91"/>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -6083,10 +6111,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="50"/>
@@ -6099,7 +6127,7 @@
       <c r="D31" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="E31" s="225"/>
+      <c r="E31" s="224"/>
       <c r="F31" s="134"/>
       <c r="G31" s="184"/>
       <c r="H31" s="86"/>
@@ -6156,8 +6184,8 @@
   </sheetPr>
   <dimension ref="D2:T45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6169,37 +6197,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="243" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="243"/>
+      <c r="E5" s="244"/>
       <c r="F5" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="242" t="s">
+      <c r="G5" s="243" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="244"/>
       <c r="I5" s="43" t="s">
         <v>211</v>
       </c>
@@ -6424,7 +6452,7 @@
       <c r="I16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -6445,7 +6473,7 @@
       <c r="I17" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -6466,7 +6494,7 @@
       <c r="I18" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -6487,7 +6515,7 @@
       <c r="I19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93">
@@ -6766,10 +6794,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="239" t="s">
+      <c r="H37" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="240"/>
+      <c r="I37" s="241"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
@@ -6777,7 +6805,7 @@
       </c>
       <c r="E38" s="134"/>
       <c r="F38" s="134"/>
-      <c r="H38" s="221" t="s">
+      <c r="H38" s="220" t="s">
         <v>220</v>
       </c>
       <c r="I38" s="182"/>
@@ -6788,7 +6816,7 @@
       </c>
       <c r="E39" s="134"/>
       <c r="F39" s="134"/>
-      <c r="H39" s="221" t="s">
+      <c r="H39" s="220" t="s">
         <v>221</v>
       </c>
       <c r="I39" s="182"/>
@@ -6796,7 +6824,7 @@
     <row r="40" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D40" s="50"/>
       <c r="F40" s="28"/>
-      <c r="H40" s="221" t="s">
+      <c r="H40" s="220" t="s">
         <v>222</v>
       </c>
       <c r="I40" s="182"/>
@@ -6805,9 +6833,9 @@
       <c r="D41" s="133" t="s">
         <v>279</v>
       </c>
-      <c r="E41" s="225"/>
+      <c r="E41" s="224"/>
       <c r="F41" s="134"/>
-      <c r="H41" s="222" t="s">
+      <c r="H41" s="221" t="s">
         <v>223</v>
       </c>
       <c r="I41" s="183"/>
@@ -6815,7 +6843,7 @@
     <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="50"/>
       <c r="F42" s="28"/>
-      <c r="H42" s="222" t="s">
+      <c r="H42" s="221" t="s">
         <v>224</v>
       </c>
       <c r="I42" s="183"/>
@@ -6826,7 +6854,7 @@
       </c>
       <c r="E43" s="151"/>
       <c r="F43" s="151"/>
-      <c r="H43" s="222" t="s">
+      <c r="H43" s="221" t="s">
         <v>225</v>
       </c>
       <c r="I43" s="183"/>
@@ -6837,15 +6865,15 @@
       </c>
       <c r="E44" s="151"/>
       <c r="F44" s="151"/>
-      <c r="H44" s="222" t="s">
+      <c r="H44" s="221" t="s">
         <v>226</v>
       </c>
       <c r="I44" s="189"/>
     </row>
     <row r="45" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="218"/>
-      <c r="E45" s="219"/>
-      <c r="F45" s="219"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="218"/>
       <c r="G45" s="187"/>
       <c r="H45" s="4"/>
       <c r="I45" s="6"/>
@@ -6882,24 +6910,24 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -7495,13 +7523,13 @@
       <c r="E28" s="150"/>
       <c r="F28" s="150"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="239" t="s">
+      <c r="H28" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="240"/>
+      <c r="I28" s="241"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="244"/>
-      <c r="L28" s="244"/>
+      <c r="K28" s="245"/>
+      <c r="L28" s="245"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="149" t="s">
@@ -7617,24 +7645,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41"/>
@@ -7791,7 +7819,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D17" s="106">
@@ -7806,7 +7834,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D18" s="123">
@@ -7821,7 +7849,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D19" s="123">
@@ -7836,7 +7864,7 @@
       <c r="G19" s="89"/>
       <c r="H19" s="90"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D20" s="115">
@@ -7948,10 +7976,10 @@
       <c r="E29" s="150"/>
       <c r="F29" s="150"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="149" t="s">
@@ -8033,22 +8061,22 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -8357,10 +8385,10 @@
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="239" t="s">
+      <c r="H29" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="240"/>
+      <c r="I29" s="241"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
@@ -8438,30 +8466,30 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="234"/>
     </row>
     <row r="4" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="238"/>
+      <c r="J4" s="238"/>
+      <c r="K4" s="238"/>
+      <c r="L4" s="236"/>
     </row>
     <row r="5" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="41" t="s">
@@ -9114,7 +9142,7 @@
       <c r="L27" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="M27" s="241"/>
+      <c r="M27" s="242"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="128">
@@ -9144,7 +9172,7 @@
       <c r="L28" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="M28" s="241"/>
+      <c r="M28" s="242"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="128">
@@ -9174,7 +9202,7 @@
       <c r="L29" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="M29" s="241"/>
+      <c r="M29" s="242"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="128">
@@ -9204,7 +9232,7 @@
       <c r="L30" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="M30" s="241"/>
+      <c r="M30" s="242"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="128">
@@ -9335,10 +9363,10 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="239" t="s">
+      <c r="K39" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="240"/>
+      <c r="L39" s="241"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" s="133" t="s">
@@ -9491,37 +9519,37 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="232" t="s">
+      <c r="D3" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="232" t="s">
+      <c r="E3" s="234"/>
+      <c r="F3" s="233" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="233"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="238"/>
+      <c r="H4" s="238"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="243" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="243"/>
+      <c r="E5" s="244"/>
       <c r="F5" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="242" t="s">
+      <c r="G5" s="243" t="s">
         <v>214</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="244"/>
       <c r="I5" s="43" t="s">
         <v>215</v>
       </c>
@@ -9642,7 +9670,7 @@
       <c r="G16" s="89"/>
       <c r="H16" s="90"/>
       <c r="I16" s="92"/>
-      <c r="J16" s="241"/>
+      <c r="J16" s="242"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="106"/>
@@ -9651,7 +9679,7 @@
       <c r="G17" s="89"/>
       <c r="H17" s="90"/>
       <c r="I17" s="91"/>
-      <c r="J17" s="241"/>
+      <c r="J17" s="242"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="123"/>
@@ -9660,7 +9688,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="90"/>
       <c r="I18" s="91"/>
-      <c r="J18" s="241"/>
+      <c r="J18" s="242"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="123"/>
@@ -9669,7 +9697,7 @@
       <c r="G19" s="106"/>
       <c r="H19" s="107"/>
       <c r="I19" s="108"/>
-      <c r="J19" s="241"/>
+      <c r="J19" s="242"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="93"/>
@@ -9820,10 +9848,10 @@
       <c r="E37" s="132"/>
       <c r="F37" s="132"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="239" t="s">
+      <c r="H37" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="240"/>
+      <c r="I37" s="241"/>
     </row>
     <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="133" t="s">
